--- a/data_year/zb/人民生活/城镇居民主要食品消费量.xlsx
+++ b/data_year/zb/人民生活/城镇居民主要食品消费量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.1</v>
+        <v>17.149638235</v>
       </c>
       <c r="C4" t="n">
-        <v>55.1</v>
+        <v>55.1240248708</v>
       </c>
       <c r="D4" t="n">
-        <v>14.7</v>
+        <v>14.7144266632</v>
       </c>
       <c r="E4" t="n">
-        <v>9.4</v>
+        <v>9.446481546699999</v>
       </c>
       <c r="F4" t="n">
-        <v>112.6</v>
+        <v>112.6077535028</v>
       </c>
       <c r="G4" t="n">
-        <v>28.9</v>
+        <v>28.9298946537</v>
       </c>
       <c r="H4" t="n">
-        <v>104.4</v>
+        <v>104.3657877853</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>10.4782592771</v>
       </c>
       <c r="J4" t="n">
-        <v>11.1</v>
+        <v>11.0706473679</v>
       </c>
       <c r="K4" t="n">
-        <v>1.3</v>
+        <v>1.3152458043</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.5</v>
+        <v>16.542333</v>
       </c>
       <c r="C5" t="n">
-        <v>58.1</v>
+        <v>58.096552</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8</v>
+        <v>14.822911</v>
       </c>
       <c r="E5" t="n">
-        <v>10.2</v>
+        <v>10.171681</v>
       </c>
       <c r="F5" t="n">
-        <v>111.9</v>
+        <v>111.941992</v>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>28.991603</v>
       </c>
       <c r="H5" t="n">
-        <v>107.5</v>
+        <v>107.460693</v>
       </c>
       <c r="I5" t="n">
-        <v>10.7</v>
+        <v>10.665439</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>10.97453</v>
       </c>
       <c r="K5" t="n">
-        <v>1.3</v>
+        <v>1.308814</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.5</v>
+        <v>16.4806991811</v>
       </c>
       <c r="C6" t="n">
-        <v>59.9</v>
+        <v>59.8957601621</v>
       </c>
       <c r="D6" t="n">
-        <v>14.8</v>
+        <v>14.8140482373</v>
       </c>
       <c r="E6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.7371215337</v>
       </c>
       <c r="F6" t="n">
-        <v>109.7</v>
+        <v>109.7459189229</v>
       </c>
       <c r="G6" t="n">
-        <v>29.2</v>
+        <v>29.212351815</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7</v>
+        <v>106.6663630277</v>
       </c>
       <c r="I6" t="n">
-        <v>10.9</v>
+        <v>10.9109388128</v>
       </c>
       <c r="J6" t="n">
-        <v>10.7</v>
+        <v>10.6731617358</v>
       </c>
       <c r="K6" t="n">
-        <v>1.3</v>
+        <v>1.3007790158</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.5</v>
+        <v>16.528363747</v>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>61.9830228564</v>
       </c>
       <c r="D7" t="n">
-        <v>14.3</v>
+        <v>14.3189338101</v>
       </c>
       <c r="E7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.826628323</v>
       </c>
       <c r="F7" t="n">
-        <v>110</v>
+        <v>109.9724993605</v>
       </c>
       <c r="G7" t="n">
-        <v>31.2</v>
+        <v>31.1889245595</v>
       </c>
       <c r="H7" t="n">
-        <v>103.1</v>
+        <v>103.0768810615</v>
       </c>
       <c r="I7" t="n">
-        <v>10.8</v>
+        <v>10.7567167786</v>
       </c>
       <c r="J7" t="n">
-        <v>9.4</v>
+        <v>9.4240010776</v>
       </c>
       <c r="K7" t="n">
-        <v>1.3</v>
+        <v>1.2753433894</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.7</v>
+        <v>16.6517618266</v>
       </c>
       <c r="C8" t="n">
-        <v>66.8</v>
+        <v>66.80412564940001</v>
       </c>
       <c r="D8" t="n">
-        <v>16.7</v>
+        <v>16.7102769139</v>
       </c>
       <c r="E8" t="n">
-        <v>11.4</v>
+        <v>11.4175935958</v>
       </c>
       <c r="F8" t="n">
-        <v>110.6</v>
+        <v>110.6098078824</v>
       </c>
       <c r="G8" t="n">
-        <v>28.7</v>
+        <v>28.6854542418</v>
       </c>
       <c r="H8" t="n">
-        <v>105.8</v>
+        <v>105.8253524596</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>11.4931479388</v>
       </c>
       <c r="J8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1970798763</v>
       </c>
       <c r="K8" t="n">
-        <v>1.2</v>
+        <v>1.150784055</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,71 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.3</v>
+        <v>17.3494231524248</v>
       </c>
       <c r="C9" t="n">
-        <v>65.90000000000001</v>
+        <v>65.8703711874051</v>
       </c>
       <c r="D9" t="n">
-        <v>16.6</v>
+        <v>16.6334152018643</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>12.9897280053113</v>
       </c>
       <c r="F9" t="n">
-        <v>120.2</v>
+        <v>120.177422164818</v>
       </c>
       <c r="G9" t="n">
-        <v>27.4</v>
+        <v>27.373432498469</v>
       </c>
       <c r="H9" t="n">
-        <v>109.8</v>
+        <v>109.779031089268</v>
       </c>
       <c r="I9" t="n">
-        <v>13.5</v>
+        <v>13.5123244227791</v>
       </c>
       <c r="J9" t="n">
-        <v>9.9</v>
+        <v>9.90937496563544</v>
       </c>
       <c r="K9" t="n">
-        <v>1.2</v>
+        <v>1.16803442983011</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>112</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
